--- a/Master_Linking_Log.xlsx
+++ b/Master_Linking_Log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Master_Linking_Log" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Master_Linking_Log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Subject_ID</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>22:30:49.577803</t>
+  </si>
+  <si>
+    <t>2017-10-28</t>
+  </si>
+  <si>
+    <t>13:11:48.028354</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -538,6 +544,32 @@
       </c>
       <c r="H4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Master_Linking_Log.xlsx
+++ b/Master_Linking_Log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Subject_ID</t>
   </si>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>13:11:48.028354</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>22:01:58.011740</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -434,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -570,6 +594,58 @@
       </c>
       <c r="H5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
